--- a/Clase_00/Base_1_TimeSeries.xlsx
+++ b/Clase_00/Base_1_TimeSeries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CDB116-30F8-D34F-B713-EB55C21A2129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32B9DD-0124-3147-87D6-9446C692C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32100" yWindow="2780" windowWidth="27640" windowHeight="16540" xr2:uid="{0D46E9FE-A0A6-634E-B88F-BB6E7EC27F03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Periodo</t>
   </si>
@@ -750,24 +750,30 @@
     <t>2021/06</t>
   </si>
   <si>
+    <t>2022/07</t>
+  </si>
+  <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2021/09</t>
+  </si>
+  <si>
+    <t>2021/10</t>
+  </si>
+  <si>
+    <t>2021/11</t>
+  </si>
+  <si>
+    <t>2021/12</t>
+  </si>
+  <si>
     <t>2021/07</t>
   </si>
   <si>
     <t>2021/08</t>
   </si>
   <si>
-    <t>2021/09</t>
-  </si>
-  <si>
-    <t>2021/10</t>
-  </si>
-  <si>
-    <t>2021/11</t>
-  </si>
-  <si>
-    <t>2021/12</t>
-  </si>
-  <si>
     <t>2022/01</t>
   </si>
   <si>
@@ -781,6 +787,36 @@
   </si>
   <si>
     <t>2022/05</t>
+  </si>
+  <si>
+    <t>2022/06</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>2022/12</t>
+  </si>
+  <si>
+    <t>2023/01</t>
+  </si>
+  <si>
+    <t>2023/02</t>
+  </si>
+  <si>
+    <t>2023/03</t>
+  </si>
+  <si>
+    <t>2023/04</t>
+  </si>
+  <si>
+    <t>2023/05</t>
   </si>
 </sst>
 </file>
@@ -822,9 +858,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E69B6-2D16-514E-A726-941639C52B74}">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247:F248"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,22 +1209,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>77.386285060066001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>91.808737017143997</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2">
+        <v>76.849049064710002</v>
+      </c>
+      <c r="C2">
+        <v>91.808737017132003</v>
+      </c>
+      <c r="D2">
         <v>36.927558573412</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>43.361664188612998</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>6927.87</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>9.1616</v>
       </c>
     </row>
@@ -1197,22 +1232,22 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>75.109315347898999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>77.921868883282997</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3">
+        <v>75.384098896275006</v>
+      </c>
+      <c r="C3">
+        <v>77.921868883271998</v>
+      </c>
+      <c r="D3">
         <v>37.597942107675998</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>43.494350436989002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>6734.44</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>9.0998000000000001</v>
       </c>
     </row>
@@ -1220,22 +1255,22 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>77.122272447317997</v>
-      </c>
-      <c r="C4" s="1">
-        <v>76.297767686133</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4">
+        <v>79.221103423832005</v>
+      </c>
+      <c r="C4">
+        <v>76.297767686121006</v>
+      </c>
+      <c r="D4">
         <v>39.779215965106999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>44.738873539640998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>7361.86</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>9.0707000000000004</v>
       </c>
     </row>
@@ -1243,22 +1278,22 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>80.830235108813994</v>
-      </c>
-      <c r="C5" s="1">
-        <v>74.740497338023005</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5">
+        <v>78.961362615306001</v>
+      </c>
+      <c r="C5">
+        <v>74.740497338012005</v>
+      </c>
+      <c r="D5">
         <v>39.832431635131002</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>44.611169271342</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>7480.74</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>9.1629000000000005</v>
       </c>
     </row>
@@ -1266,22 +1301,22 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>82.069941878490994</v>
-      </c>
-      <c r="C6" s="1">
-        <v>88.612766466189996</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6">
+        <v>81.587717262618</v>
+      </c>
+      <c r="C6">
+        <v>88.612766466178002</v>
+      </c>
+      <c r="D6">
         <v>41.630049645459998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>46.596619270687</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>7031.64</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>9.5191999999999997</v>
       </c>
     </row>
@@ -1289,22 +1324,22 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <v>79.721270204191995</v>
-      </c>
-      <c r="C7" s="1">
-        <v>91.791641057427</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7">
+        <v>80.561147138180999</v>
+      </c>
+      <c r="C7">
+        <v>91.791641057416996</v>
+      </c>
+      <c r="D7">
         <v>41.547499507034999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>46.666777182678999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>6460.95</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>9.7652000000000001</v>
       </c>
     </row>
@@ -1312,22 +1347,22 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
-        <v>79.927183686746005</v>
-      </c>
-      <c r="C8" s="1">
-        <v>80.666350064880007</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8">
+        <v>79.384847605502998</v>
+      </c>
+      <c r="C8">
+        <v>80.666350064873996</v>
+      </c>
+      <c r="D8">
         <v>42.196272825314999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>46.816340775604999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>6021.84</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>9.7807999999999993</v>
       </c>
     </row>
@@ -1335,22 +1370,22 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
-        <v>80.305760518024996</v>
-      </c>
-      <c r="C9" s="1">
-        <v>70.919565999718998</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9">
+        <v>80.195140765816006</v>
+      </c>
+      <c r="C9">
+        <v>70.919565999718003</v>
+      </c>
+      <c r="D9">
         <v>42.537365852275997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>45.194430224237003</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>6216.43</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>9.8396000000000008</v>
       </c>
     </row>
@@ -1358,22 +1393,22 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
-        <v>78.380179640555994</v>
-      </c>
-      <c r="C10" s="1">
-        <v>65.952748213663995</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10">
+        <v>78.938175798729006</v>
+      </c>
+      <c r="C10">
+        <v>65.952748213668002</v>
+      </c>
+      <c r="D10">
         <v>41.977721212890003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>45.417543658071999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>5728.46</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>10.071400000000001</v>
       </c>
     </row>
@@ -1381,22 +1416,22 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
-        <v>81.607738606858007</v>
-      </c>
-      <c r="C11" s="1">
-        <v>74.933842711668007</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11">
+        <v>81.041754271738995</v>
+      </c>
+      <c r="C11">
+        <v>74.933842711679006</v>
+      </c>
+      <c r="D11">
         <v>41.005364954704</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>45.792058637670998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>5967.73</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>10.095000000000001</v>
       </c>
     </row>
@@ -1404,22 +1439,22 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>80.095182105001001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>101.331995913762</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12">
+        <v>80.084317737278994</v>
+      </c>
+      <c r="C12">
+        <v>101.331995913786</v>
+      </c>
+      <c r="D12">
         <v>42.111526092018003</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>45.383454377405002</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>6156.83</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>10.1975</v>
       </c>
     </row>
@@ -1427,22 +1462,22 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
-        <v>80.490506762468002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>103.030656413011</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13">
+        <v>80.781126968386005</v>
+      </c>
+      <c r="C13">
+        <v>103.030656413046</v>
+      </c>
+      <c r="D13">
         <v>42.914961613891002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>44.972206231053001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>6127.09</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>10.2249</v>
       </c>
     </row>
@@ -1450,22 +1485,22 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
-        <v>79.272388857495002</v>
-      </c>
-      <c r="C14" s="1">
-        <v>95.032427315484995</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14">
+        <v>78.806159654468999</v>
+      </c>
+      <c r="C14">
+        <v>95.032427315529006</v>
+      </c>
+      <c r="D14">
         <v>40.884979005161</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>45.804093833556998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>5954.35</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>10.6203</v>
       </c>
     </row>
@@ -1473,22 +1508,22 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
-        <v>77.175505220142995</v>
-      </c>
-      <c r="C15" s="1">
-        <v>79.456646873230994</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15">
+        <v>77.458669619073007</v>
+      </c>
+      <c r="C15">
+        <v>79.456646873273996</v>
+      </c>
+      <c r="D15">
         <v>39.148309064803001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>44.681264555901997</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>5927.06</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>10.937200000000001</v>
       </c>
     </row>
@@ -1496,22 +1531,22 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
-        <v>80.339755457088003</v>
-      </c>
-      <c r="C16" s="1">
-        <v>77.904214085779003</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16">
+        <v>80.408043916297004</v>
+      </c>
+      <c r="C16">
+        <v>77.904214085823</v>
+      </c>
+      <c r="D16">
         <v>37.882144218617</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>44.590018832711003</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>5914.03</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>10.9124</v>
       </c>
     </row>
@@ -1519,22 +1554,22 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1">
-        <v>79.950928497652001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>76.308623456581003</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17">
+        <v>80.177634186223003</v>
+      </c>
+      <c r="C17">
+        <v>76.308623456621007</v>
+      </c>
+      <c r="D17">
         <v>40.005031711850002</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>46.538323542344003</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>6509.88</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>10.591699999999999</v>
       </c>
     </row>
@@ -1542,22 +1577,22 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1">
-        <v>82.288418514786997</v>
-      </c>
-      <c r="C18" s="1">
-        <v>87.638430218352994</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18">
+        <v>82.174404693764998</v>
+      </c>
+      <c r="C18">
+        <v>87.638430218395996</v>
+      </c>
+      <c r="D18">
         <v>40.957565736684003</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>46.359658334538999</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>6699.18</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>10.251200000000001</v>
       </c>
     </row>
@@ -1566,10 +1601,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>81.443369823173995</v>
+        <v>82.022988665168995</v>
       </c>
       <c r="C19">
-        <v>100.728920518816</v>
+        <v>100.72892051885501</v>
       </c>
       <c r="D19">
         <v>41.352470524521003</v>
@@ -1589,10 +1624,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>80.935701162933</v>
+        <v>80.374417014722994</v>
       </c>
       <c r="C20">
-        <v>86.294489418471997</v>
+        <v>86.294489418492006</v>
       </c>
       <c r="D20">
         <v>41.377350711883999</v>
@@ -1612,10 +1647,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>79.419952230779003</v>
+        <v>80.062250635960993</v>
       </c>
       <c r="C21">
-        <v>70.418568515966001</v>
+        <v>70.418568515968005</v>
       </c>
       <c r="D21">
         <v>41.071171881768997</v>
@@ -1635,10 +1670,10 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>79.188780153907999</v>
+        <v>78.826384250765003</v>
       </c>
       <c r="C22">
-        <v>68.498295590127995</v>
+        <v>68.498295590113997</v>
       </c>
       <c r="D22">
         <v>40.095952771034</v>
@@ -1658,10 +1693,10 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>81.879109444812997</v>
+        <v>81.397839670352994</v>
       </c>
       <c r="C23">
-        <v>69.031556197129007</v>
+        <v>69.031556197092996</v>
       </c>
       <c r="D23">
         <v>39.822303594204001</v>
@@ -1681,10 +1716,10 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>80.634513291389993</v>
+        <v>81.484779411789006</v>
       </c>
       <c r="C24">
-        <v>109.718132046286</v>
+        <v>109.718132046195</v>
       </c>
       <c r="D24">
         <v>39.155114573469</v>
@@ -1704,10 +1739,10 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>83.330369770196</v>
+        <v>82.764764734902997</v>
       </c>
       <c r="C25">
-        <v>111.11206534392601</v>
+        <v>111.11206534379301</v>
       </c>
       <c r="D25">
         <v>39.600450099566999</v>
@@ -1727,10 +1762,10 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>80.930066397947002</v>
+        <v>80.818279358672001</v>
       </c>
       <c r="C26">
-        <v>106.698000299714</v>
+        <v>106.698000299535</v>
       </c>
       <c r="D26">
         <v>39.629821475025999</v>
@@ -1750,10 +1785,10 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>79.193822091865002</v>
+        <v>78.974123131065994</v>
       </c>
       <c r="C27">
-        <v>87.088217276869003</v>
+        <v>87.088217276698003</v>
       </c>
       <c r="D27">
         <v>39.437491418458997</v>
@@ -1773,10 +1808,10 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>84.927848565971999</v>
+        <v>83.634174828171993</v>
       </c>
       <c r="C28">
-        <v>79.054858433188997</v>
+        <v>79.054858433028997</v>
       </c>
       <c r="D28">
         <v>39.626755192928997</v>
@@ -1796,10 +1831,10 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>82.936225093703996</v>
+        <v>83.340730368037995</v>
       </c>
       <c r="C29">
-        <v>78.56885841255</v>
+        <v>78.568858412395997</v>
       </c>
       <c r="D29">
         <v>39.752330848820002</v>
@@ -1819,10 +1854,10 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>85.239049563243995</v>
+        <v>86.043335854975993</v>
       </c>
       <c r="C30">
-        <v>90.343838156844001</v>
+        <v>90.343838156686999</v>
       </c>
       <c r="D30">
         <v>41.079092185707999</v>
@@ -1842,10 +1877,10 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>85.620872535480004</v>
+        <v>85.133092459340006</v>
       </c>
       <c r="C31">
-        <v>98.246480626158004</v>
+        <v>98.246480626025999</v>
       </c>
       <c r="D31">
         <v>41.079287995192999</v>
@@ -1865,10 +1900,10 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>82.940233930540998</v>
+        <v>82.825504633736003</v>
       </c>
       <c r="C32">
-        <v>83.488730617347002</v>
+        <v>83.488730617281007</v>
       </c>
       <c r="D32">
         <v>39.838268740672</v>
@@ -1888,10 +1923,10 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>83.132439761504997</v>
+        <v>83.431646359666004</v>
       </c>
       <c r="C33">
-        <v>68.021825769565993</v>
+        <v>68.021825769562994</v>
       </c>
       <c r="D33">
         <v>39.382574531552002</v>
@@ -1911,10 +1946,10 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>82.197508538155006</v>
+        <v>81.913709128708007</v>
       </c>
       <c r="C34">
-        <v>65.611203004328004</v>
+        <v>65.611203004383995</v>
       </c>
       <c r="D34">
         <v>40.088043180325997</v>
@@ -1934,10 +1969,10 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>84.362684830318003</v>
+        <v>85.045223500397995</v>
       </c>
       <c r="C35">
-        <v>73.486833310031997</v>
+        <v>73.486833310172997</v>
       </c>
       <c r="D35">
         <v>39.099826295804</v>
@@ -1957,10 +1992,10 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>85.941539719800005</v>
+        <v>85.548461469133997</v>
       </c>
       <c r="C36">
-        <v>115.60042237003201</v>
+        <v>115.600422370369</v>
       </c>
       <c r="D36">
         <v>39.169206341328</v>
@@ -1980,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>86.230567228034005</v>
+        <v>85.724265228131998</v>
       </c>
       <c r="C37">
-        <v>113.84952734639199</v>
+        <v>113.849527346877</v>
       </c>
       <c r="D37">
         <v>41.712131922208002</v>
@@ -2003,10 +2038,10 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>82.258370210202003</v>
+        <v>83.034206416765002</v>
       </c>
       <c r="C38">
-        <v>97.847728736283003</v>
+        <v>97.847728736861995</v>
       </c>
       <c r="D38">
         <v>42.019477188346997</v>
@@ -2026,10 +2061,10 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>80.899420200224</v>
+        <v>81.195305710498005</v>
       </c>
       <c r="C39">
-        <v>84.214419677654007</v>
+        <v>84.214419678235004</v>
       </c>
       <c r="D39">
         <v>43.222584660529002</v>
@@ -2049,10 +2084,10 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>83.626395431079004</v>
+        <v>84.621771904997999</v>
       </c>
       <c r="C40">
-        <v>73.929451648777004</v>
+        <v>73.929451649309996</v>
       </c>
       <c r="D40">
         <v>42.862173490898002</v>
@@ -2072,10 +2107,10 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>86.593728439489993</v>
+        <v>84.969914987172999</v>
       </c>
       <c r="C41">
-        <v>77.878281304357003</v>
+        <v>77.878281304889995</v>
       </c>
       <c r="D41">
         <v>41.124198784562999</v>
@@ -2095,10 +2130,10 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>87.888891144873</v>
+        <v>88.205792798256994</v>
       </c>
       <c r="C42">
-        <v>89.268090379583995</v>
+        <v>89.268090380114998</v>
       </c>
       <c r="D42">
         <v>40.653950418611998</v>
@@ -2118,10 +2153,10 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>86.352087419762</v>
+        <v>86.053342060416995</v>
       </c>
       <c r="C43">
-        <v>85.551023404274005</v>
+        <v>85.551023404679995</v>
       </c>
       <c r="D43">
         <v>41.055830727975</v>
@@ -2141,10 +2176,10 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>83.784199766526001</v>
+        <v>84.461541265215004</v>
       </c>
       <c r="C44">
-        <v>91.479056974393998</v>
+        <v>91.479056974643996</v>
       </c>
       <c r="D44">
         <v>41.125404075920002</v>
@@ -2164,10 +2199,10 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>86.431199132436006</v>
+        <v>85.844730358842995</v>
       </c>
       <c r="C45">
-        <v>71.253094430608996</v>
+        <v>71.253094430621005</v>
       </c>
       <c r="D45">
         <v>40.308235865889003</v>
@@ -2187,10 +2222,10 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>84.642559558784995</v>
+        <v>84.332318575043004</v>
       </c>
       <c r="C46">
-        <v>64.603292149186004</v>
+        <v>64.603292148986995</v>
       </c>
       <c r="D46">
         <v>41.708963780631002</v>
@@ -2210,10 +2245,10 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>86.853103383464997</v>
+        <v>87.672565950001996</v>
       </c>
       <c r="C47">
-        <v>71.326891911070007</v>
+        <v>71.326891910586994</v>
       </c>
       <c r="D47">
         <v>41.971550838587</v>
@@ -2233,10 +2268,10 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>88.657324724107994</v>
+        <v>88.151791945523001</v>
       </c>
       <c r="C48">
-        <v>108.086470321131</v>
+        <v>108.08647031999099</v>
       </c>
       <c r="D48">
         <v>42.105013533792999</v>
@@ -2256,10 +2291,10 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>89.151098185715</v>
+        <v>89.027930595637997</v>
       </c>
       <c r="C49">
-        <v>104.771499270156</v>
+        <v>104.77149926855201</v>
       </c>
       <c r="D49">
         <v>44.332791536949998</v>
@@ -2279,10 +2314,10 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>87.045560959257003</v>
+        <v>87.359754234513005</v>
       </c>
       <c r="C50">
-        <v>107.687579177971</v>
+        <v>107.68757917568399</v>
       </c>
       <c r="D50">
         <v>43.941498399982002</v>
@@ -2302,10 +2337,10 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>84.082966049221</v>
+        <v>84.390967626988996</v>
       </c>
       <c r="C51">
-        <v>83.936479858484006</v>
+        <v>83.936479856340995</v>
       </c>
       <c r="D51">
         <v>43.910020768118002</v>
@@ -2325,10 +2360,10 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>89.540081313003</v>
+        <v>88.256401372561001</v>
       </c>
       <c r="C52">
-        <v>73.357050910859002</v>
+        <v>73.357050908907993</v>
       </c>
       <c r="D52">
         <v>45.602881088803997</v>
@@ -2348,10 +2383,10 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>87.102501090952003</v>
+        <v>88.776340901584007</v>
       </c>
       <c r="C53">
-        <v>79.753069512419003</v>
+        <v>79.753069510394994</v>
       </c>
       <c r="D53">
         <v>44.785435891577997</v>
@@ -2371,10 +2406,10 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>93.139352987414</v>
+        <v>92.507229360904006</v>
       </c>
       <c r="C54">
-        <v>95.992303826116</v>
+        <v>95.992303824005006</v>
       </c>
       <c r="D54">
         <v>44.650804190865003</v>
@@ -2394,10 +2429,10 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>91.368641642010004</v>
+        <v>91.033630848187002</v>
       </c>
       <c r="C55">
-        <v>101.920462801998</v>
+        <v>101.920462800229</v>
       </c>
       <c r="D55">
         <v>44.233933754907</v>
@@ -2417,10 +2452,10 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>88.358893665490001</v>
+        <v>89.192776930863005</v>
       </c>
       <c r="C56">
-        <v>87.691774628627002</v>
+        <v>87.691774627727995</v>
       </c>
       <c r="D56">
         <v>44.867405533193001</v>
@@ -2440,10 +2475,10 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>90.246185493178999</v>
+        <v>89.619818596306004</v>
       </c>
       <c r="C57">
-        <v>70.610412384816001</v>
+        <v>70.610412384762</v>
       </c>
       <c r="D57">
         <v>45.038260799334999</v>
@@ -2463,10 +2498,10 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>87.869097530410997</v>
+        <v>87.857280919619996</v>
       </c>
       <c r="C58">
-        <v>65.376543513526997</v>
+        <v>65.376543514260007</v>
       </c>
       <c r="D58">
         <v>45.060374418395</v>
@@ -2486,10 +2521,10 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>91.597487401023997</v>
+        <v>91.927158153375004</v>
       </c>
       <c r="C59">
-        <v>82.292012556204995</v>
+        <v>82.292012558143995</v>
       </c>
       <c r="D59">
         <v>44.301648185090997</v>
@@ -2509,10 +2544,10 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>91.145198981489997</v>
+        <v>90.829764939975007</v>
       </c>
       <c r="C60">
-        <v>111.75952924777501</v>
+        <v>111.759529251873</v>
       </c>
       <c r="D60">
         <v>43.188289674998003</v>
@@ -2532,10 +2567,10 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>90.861380979586997</v>
+        <v>91.595771279703996</v>
       </c>
       <c r="C61">
-        <v>127.587864517599</v>
+        <v>127.587864524068</v>
       </c>
       <c r="D61">
         <v>44.787074059931001</v>
@@ -2555,10 +2590,10 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>88.777286660735996</v>
+        <v>88.174817219133999</v>
       </c>
       <c r="C62">
-        <v>103.202232426056</v>
+        <v>103.202232433465</v>
       </c>
       <c r="D62">
         <v>42.741221973401998</v>
@@ -2578,10 +2613,10 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>85.768279129624005</v>
+        <v>86.082139212819996</v>
       </c>
       <c r="C63">
-        <v>91.065845263206995</v>
+        <v>91.065845270951996</v>
       </c>
       <c r="D63">
         <v>42.377794728391002</v>
@@ -2601,10 +2636,10 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>91.422051900550997</v>
+        <v>90.518959658091006</v>
       </c>
       <c r="C64">
-        <v>80.471805252215006</v>
+        <v>80.471805259543999</v>
       </c>
       <c r="D64">
         <v>43.567732769547</v>
@@ -2624,10 +2659,10 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>89.320626648285995</v>
+        <v>90.729105044172002</v>
       </c>
       <c r="C65">
-        <v>83.443382609772996</v>
+        <v>83.443382617059996</v>
       </c>
       <c r="D65">
         <v>43.441486719152998</v>
@@ -2647,10 +2682,10 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>94.322367493493999</v>
+        <v>93.667536839758</v>
       </c>
       <c r="C66">
-        <v>100.29166426723</v>
+        <v>100.291664274803</v>
       </c>
       <c r="D66">
         <v>43.753407724589003</v>
@@ -2670,10 +2705,10 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>93.534598775014004</v>
+        <v>93.522525245726001</v>
       </c>
       <c r="C67">
-        <v>111.54960817877399</v>
+        <v>111.54960818531499</v>
       </c>
       <c r="D67">
         <v>43.069396217955997</v>
@@ -2693,10 +2728,10 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>91.411022018680001</v>
+        <v>91.740487722940003</v>
       </c>
       <c r="C68">
-        <v>94.310386631932005</v>
+        <v>94.310386635255995</v>
       </c>
       <c r="D68">
         <v>42.962881260261</v>
@@ -2716,10 +2751,10 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>92.217327271518997</v>
+        <v>91.675088617118007</v>
       </c>
       <c r="C69">
-        <v>75.8382381431</v>
+        <v>75.838238143336</v>
       </c>
       <c r="D69">
         <v>43.986291684984003</v>
@@ -2739,10 +2774,10 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>89.475178697469005</v>
+        <v>90.417940570097997</v>
       </c>
       <c r="C70">
-        <v>66.041790214312002</v>
+        <v>66.041790211638002</v>
       </c>
       <c r="D70">
         <v>43.023769283466002</v>
@@ -2762,10 +2797,10 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>95.279990225549994</v>
+        <v>94.633706755568994</v>
       </c>
       <c r="C71">
-        <v>87.972354679890998</v>
+        <v>87.97235467246</v>
       </c>
       <c r="D71">
         <v>41.266570387477998</v>
@@ -2785,10 +2820,10 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>93.809259337060993</v>
+        <v>93.464674848553997</v>
       </c>
       <c r="C72">
-        <v>129.38981777316801</v>
+        <v>129.38981775680099</v>
       </c>
       <c r="D72">
         <v>40.856834279973</v>
@@ -2808,10 +2843,10 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>92.457198616729997</v>
+        <v>93.329446651691001</v>
       </c>
       <c r="C73">
-        <v>110.011606958923</v>
+        <v>110.011606937951</v>
       </c>
       <c r="D73">
         <v>42.820180786066999</v>
@@ -2831,10 +2866,10 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>90.954347524376004</v>
+        <v>90.322906063519994</v>
       </c>
       <c r="C74">
-        <v>104.540658856996</v>
+        <v>104.540658829528</v>
       </c>
       <c r="D74">
         <v>42.182214698816999</v>
@@ -2854,10 +2889,10 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>88.989333087139997</v>
+        <v>87.804753935597006</v>
       </c>
       <c r="C75">
-        <v>88.112339288103001</v>
+        <v>88.112339260308005</v>
       </c>
       <c r="D75">
         <v>41.220788409099001</v>
@@ -2877,10 +2912,10 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>89.053256453398006</v>
+        <v>91.599296813660999</v>
       </c>
       <c r="C76">
-        <v>76.090057813672004</v>
+        <v>76.090057788050004</v>
       </c>
       <c r="D76">
         <v>41.896449634047997</v>
@@ -2900,10 +2935,10 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>94.715327777775002</v>
+        <v>92.421323901722999</v>
       </c>
       <c r="C77">
-        <v>85.971365236123006</v>
+        <v>85.971365208386999</v>
       </c>
       <c r="D77">
         <v>40.153081011391997</v>
@@ -2923,10 +2958,10 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>94.864357428185002</v>
+        <v>94.733044026702999</v>
       </c>
       <c r="C78">
-        <v>105.937149833239</v>
+        <v>105.93714980334499</v>
       </c>
       <c r="D78">
         <v>38.911996368962001</v>
@@ -2946,10 +2981,10 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>94.455882688532</v>
+        <v>95.128659520856999</v>
       </c>
       <c r="C79">
-        <v>108.344235785169</v>
+        <v>108.34423576084301</v>
       </c>
       <c r="D79">
         <v>37.690265007720001</v>
@@ -2969,10 +3004,10 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>94.159307148566995</v>
+        <v>93.505667832476007</v>
       </c>
       <c r="C80">
-        <v>99.347005025862003</v>
+        <v>99.347005012088005</v>
       </c>
       <c r="D80">
         <v>36.703523097359998</v>
@@ -2992,10 +3027,10 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>91.493092649966997</v>
+        <v>92.232882113271003</v>
       </c>
       <c r="C81">
-        <v>67.551434023145006</v>
+        <v>67.551434021846006</v>
       </c>
       <c r="D81">
         <v>37.261608880235997</v>
@@ -3015,10 +3050,10 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>90.576509192973006</v>
+        <v>90.162237258730002</v>
       </c>
       <c r="C82">
-        <v>64.133078438858007</v>
+        <v>64.133078448188996</v>
       </c>
       <c r="D82">
         <v>36.655757017577002</v>
@@ -3038,10 +3073,10 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>95.506832558070997</v>
+        <v>94.945754996963998</v>
       </c>
       <c r="C83">
-        <v>89.370794155507994</v>
+        <v>89.370794182873993</v>
       </c>
       <c r="D83">
         <v>34.207808884236997</v>
@@ -3061,10 +3096,10 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>92.042699435586997</v>
+        <v>93.013003675815</v>
       </c>
       <c r="C84">
-        <v>121.727898309574</v>
+        <v>121.727898365483</v>
       </c>
       <c r="D84">
         <v>34.949981333476998</v>
@@ -3084,10 +3119,10 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>91.895054545136006</v>
+        <v>91.271667530467994</v>
       </c>
       <c r="C85">
-        <v>125.24131050251</v>
+        <v>125.24131058781801</v>
       </c>
       <c r="D85">
         <v>34.998662925250997</v>
@@ -3107,10 +3142,10 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>84.895876684239994</v>
+        <v>84.778804453649002</v>
       </c>
       <c r="C86">
-        <v>103.793145775892</v>
+        <v>103.793145874754</v>
       </c>
       <c r="D86">
         <v>34.408357698124</v>
@@ -3130,10 +3165,10 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>81.840984489885997</v>
+        <v>82.140755938303997</v>
       </c>
       <c r="C87">
-        <v>81.452837241149993</v>
+        <v>81.452837336388001</v>
       </c>
       <c r="D87">
         <v>33.402302324951002</v>
@@ -3153,10 +3188,10 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>86.873551817107</v>
+        <v>86.445258952572999</v>
       </c>
       <c r="C88">
-        <v>79.304914540954996</v>
+        <v>79.304914639610004</v>
       </c>
       <c r="D88">
         <v>33.472771550429002</v>
@@ -3176,10 +3211,10 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>84.310667672479994</v>
+        <v>84.740457627392004</v>
       </c>
       <c r="C89">
-        <v>88.780482608919996</v>
+        <v>88.780482711603995</v>
       </c>
       <c r="D89">
         <v>34.600273054943997</v>
@@ -3199,10 +3234,10 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>86.081589309533001</v>
+        <v>86.778124644230999</v>
       </c>
       <c r="C90">
-        <v>100.37162192472501</v>
+        <v>100.37162202598</v>
       </c>
       <c r="D90">
         <v>33.193280715325002</v>
@@ -3222,10 +3257,10 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>88.184264499107996</v>
+        <v>87.780195087316002</v>
       </c>
       <c r="C91">
-        <v>107.974718596057</v>
+        <v>107.974718681588</v>
       </c>
       <c r="D91">
         <v>34.225594932537</v>
@@ -3245,10 +3280,10 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>88.731692426544001</v>
+        <v>88.210568150927003</v>
       </c>
       <c r="C92">
-        <v>92.776364652587006</v>
+        <v>92.776364697660995</v>
       </c>
       <c r="D92">
         <v>36.050174206744998</v>
@@ -3268,10 +3303,10 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>86.553603614362004</v>
+        <v>87.370744513562997</v>
       </c>
       <c r="C93">
-        <v>69.685950257851999</v>
+        <v>69.685950260647004</v>
       </c>
       <c r="D93">
         <v>34.530559234720997</v>
@@ -3291,10 +3326,10 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>86.503779632475002</v>
+        <v>86.011060722284</v>
       </c>
       <c r="C94">
-        <v>64.027430749089007</v>
+        <v>64.027430712967998</v>
       </c>
       <c r="D94">
         <v>34.499310914771002</v>
@@ -3314,10 +3349,10 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>91.120572635981006</v>
+        <v>90.995211089107997</v>
       </c>
       <c r="C95">
-        <v>82.683949180843996</v>
+        <v>82.683949083990001</v>
       </c>
       <c r="D95">
         <v>32.609581622264002</v>
@@ -3337,10 +3372,10 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>91.249102306199006</v>
+        <v>91.898821171959995</v>
       </c>
       <c r="C96">
-        <v>120.290253914725</v>
+        <v>120.290253713364</v>
       </c>
       <c r="D96">
         <v>33.170739517975001</v>
@@ -3360,10 +3395,10 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>91.856302340013997</v>
+        <v>91.218647441241998</v>
       </c>
       <c r="C97">
-        <v>119.787320417454</v>
+        <v>119.787320121699</v>
       </c>
       <c r="D97">
         <v>33.986489860492</v>
@@ -3383,10 +3418,10 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>86.867019800378998</v>
+        <v>87.569472752379994</v>
       </c>
       <c r="C98">
-        <v>93.171351189552993</v>
+        <v>93.171350858767994</v>
       </c>
       <c r="D98">
         <v>34.801952208933002</v>
@@ -3406,10 +3441,10 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>85.227164965783999</v>
+        <v>85.539157712562002</v>
       </c>
       <c r="C99">
-        <v>88.003952241728001</v>
+        <v>88.003951874679004</v>
       </c>
       <c r="D99">
         <v>34.258568869686002</v>
@@ -3429,10 +3464,10 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>92.292285475621995</v>
+        <v>91.509443809838999</v>
       </c>
       <c r="C100">
-        <v>77.410300050597996</v>
+        <v>77.41029970164</v>
       </c>
       <c r="D100">
         <v>34.669094444700001</v>
@@ -3452,10 +3487,10 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>90.581817989138003</v>
+        <v>90.403895202651</v>
       </c>
       <c r="C101">
-        <v>94.540937661867005</v>
+        <v>94.540937271350003</v>
       </c>
       <c r="D101">
         <v>35.036058935423</v>
@@ -3475,10 +3510,10 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>92.300048702018998</v>
+        <v>93.170965161655005</v>
       </c>
       <c r="C102">
-        <v>108.86089287955301</v>
+        <v>108.860892483375</v>
       </c>
       <c r="D102">
         <v>35.593787418353003</v>
@@ -3498,10 +3533,10 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>93.231048302945993</v>
+        <v>92.699727205670001</v>
       </c>
       <c r="C103">
-        <v>109.53107478855399</v>
+        <v>109.531074476347</v>
       </c>
       <c r="D103">
         <v>36.779916995592998</v>
@@ -3521,10 +3556,10 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>92.328688245880997</v>
+        <v>92.201543493227007</v>
       </c>
       <c r="C104">
-        <v>98.289315445683997</v>
+        <v>98.289315271522</v>
       </c>
       <c r="D104">
         <v>36.927883087241</v>
@@ -3544,10 +3579,10 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>91.562193509173994</v>
+        <v>91.892031997109996</v>
       </c>
       <c r="C105">
-        <v>73.333070461855996</v>
+        <v>73.333070449543001</v>
       </c>
       <c r="D105">
         <v>37.200570089579998</v>
@@ -3567,10 +3602,10 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>90.556527813909995</v>
+        <v>90.243798602986999</v>
       </c>
       <c r="C106">
-        <v>71.467288660204005</v>
+        <v>71.467288803936995</v>
       </c>
       <c r="D106">
         <v>38.33026169163</v>
@@ -3590,10 +3625,10 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>93.845295302693003</v>
+        <v>94.603902177433</v>
       </c>
       <c r="C107">
-        <v>84.735133057995</v>
+        <v>84.735133419343995</v>
       </c>
       <c r="D107">
         <v>37.408578165013999</v>
@@ -3613,10 +3648,10 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>95.969331143819005</v>
+        <v>95.529546656248996</v>
       </c>
       <c r="C108">
-        <v>124.81915806385901</v>
+        <v>124.81915882700901</v>
       </c>
       <c r="D108">
         <v>37.177350050835003</v>
@@ -3636,10 +3671,10 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>95.595924249586005</v>
+        <v>95.034231990218004</v>
       </c>
       <c r="C109">
-        <v>114.990924074708</v>
+        <v>114.99092513864601</v>
       </c>
       <c r="D109">
         <v>38.176654187144997</v>
@@ -3659,10 +3694,10 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>90.205460539876</v>
+        <v>91.056196234096006</v>
       </c>
       <c r="C110">
-        <v>93.804965436779995</v>
+        <v>93.804966680511001</v>
       </c>
       <c r="D110">
         <v>38.462362621981001</v>
@@ -3682,10 +3717,10 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>88.568749002225999</v>
+        <v>88.893398329682995</v>
       </c>
       <c r="C111">
-        <v>80.923050751353003</v>
+        <v>80.923052057749999</v>
       </c>
       <c r="D111">
         <v>38.441310674972001</v>
@@ -3705,10 +3740,10 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>95.828986996216997</v>
+        <v>94.354329213792994</v>
       </c>
       <c r="C112">
-        <v>84.919065282541993</v>
+        <v>84.919066704635</v>
       </c>
       <c r="D112">
         <v>38.323262246935002</v>
@@ -3728,10 +3763,10 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>91.600050032056998</v>
+        <v>92.373791899625004</v>
       </c>
       <c r="C113">
-        <v>83.100631172605006</v>
+        <v>83.100632518501001</v>
       </c>
       <c r="D113">
         <v>37.626520746848001</v>
@@ -3751,10 +3786,10 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>95.946305364178997</v>
+        <v>96.291833970366994</v>
       </c>
       <c r="C114">
-        <v>96.549899666968003</v>
+        <v>96.549901063205994</v>
       </c>
       <c r="D114">
         <v>37.359706575395002</v>
@@ -3774,10 +3809,10 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>96.488305965509994</v>
+        <v>96.154285583721006</v>
       </c>
       <c r="C115">
-        <v>92.870984923565004</v>
+        <v>92.870986016798994</v>
       </c>
       <c r="D115">
         <v>38.767404368535999</v>
@@ -3797,10 +3832,10 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>95.217922421401994</v>
+        <v>95.988005301624</v>
       </c>
       <c r="C116">
-        <v>97.367221606594995</v>
+        <v>97.367222306062999</v>
       </c>
       <c r="D116">
         <v>39.753703316429998</v>
@@ -3820,10 +3855,10 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>96.539026919530002</v>
+        <v>95.884166839586996</v>
       </c>
       <c r="C117">
-        <v>77.215440942700994</v>
+        <v>77.215441040889999</v>
       </c>
       <c r="D117">
         <v>38.902257492951001</v>
@@ -3843,10 +3878,10 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>94.102107699496003</v>
+        <v>93.7565993945</v>
       </c>
       <c r="C118">
-        <v>67.425762653058001</v>
+        <v>67.425762164157007</v>
       </c>
       <c r="D118">
         <v>38.482258123392</v>
@@ -3866,10 +3901,10 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>97.437707386290995</v>
+        <v>98.357448574445996</v>
       </c>
       <c r="C119">
-        <v>82.548467067095999</v>
+        <v>82.548465747188004</v>
       </c>
       <c r="D119">
         <v>37.709374678644998</v>
@@ -3889,10 +3924,10 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>101.082747047941</v>
+        <v>100.506982925537</v>
       </c>
       <c r="C120">
-        <v>122.321849975144</v>
+        <v>122.321847201944</v>
       </c>
       <c r="D120">
         <v>37.423838980920998</v>
@@ -3912,10 +3947,10 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>98.815747155764001</v>
+        <v>98.679588448122004</v>
       </c>
       <c r="C121">
-        <v>116.38199267658899</v>
+        <v>116.381988653352</v>
       </c>
       <c r="D121">
         <v>37.714854775456999</v>
@@ -3935,10 +3970,10 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>94.674629644511</v>
+        <v>95.016252695730003</v>
       </c>
       <c r="C122">
-        <v>94.802840175534001</v>
+        <v>94.802835575548997</v>
       </c>
       <c r="D122">
         <v>39.360421363222997</v>
@@ -3958,10 +3993,10 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>94.079035473787997</v>
+        <v>92.846758081250002</v>
       </c>
       <c r="C123">
-        <v>86.979341671282</v>
+        <v>86.979336580522002</v>
       </c>
       <c r="D123">
         <v>38.980432396401</v>
@@ -3981,10 +4016,10 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>99.092223629578001</v>
+        <v>98.113197594010003</v>
       </c>
       <c r="C124">
-        <v>87.054954654035996</v>
+        <v>87.054949337292996</v>
       </c>
       <c r="D124">
         <v>38.875000703174997</v>
@@ -4004,10 +4039,10 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>95.47931914678</v>
+        <v>96.984183120569995</v>
       </c>
       <c r="C125">
-        <v>90.146810704925002</v>
+        <v>90.146805426621</v>
       </c>
       <c r="D125">
         <v>40.224532607652002</v>
@@ -4027,10 +4062,10 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>100.31525224224301</v>
+        <v>99.618953776216998</v>
       </c>
       <c r="C126">
-        <v>101.98376600463</v>
+        <v>101.983760756979</v>
       </c>
       <c r="D126">
         <v>39.732253561534002</v>
@@ -4050,10 +4085,10 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>99.686844443287995</v>
+        <v>99.673704754056004</v>
       </c>
       <c r="C127">
-        <v>115.280831151746</v>
+        <v>115.280826503223</v>
       </c>
       <c r="D127">
         <v>39.713253382883003</v>
@@ -4073,10 +4108,10 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>99.310909017111001</v>
+        <v>99.668962994091999</v>
       </c>
       <c r="C128">
-        <v>99.490950289262003</v>
+        <v>99.490947797993996</v>
       </c>
       <c r="D128">
         <v>41.147825546828003</v>
@@ -4096,10 +4131,10 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>99.099174357807996</v>
+        <v>98.516646679762999</v>
       </c>
       <c r="C129">
-        <v>78.192215298548007</v>
+        <v>78.192215065582005</v>
       </c>
       <c r="D129">
         <v>40.783200354222998</v>
@@ -4119,10 +4154,10 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>95.189242947546006</v>
+        <v>96.192158088035995</v>
       </c>
       <c r="C130">
-        <v>65.438801295109997</v>
+        <v>65.438803151578</v>
       </c>
       <c r="D130">
         <v>39.355022500154</v>
@@ -4142,10 +4177,10 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>101.859907525342</v>
+        <v>101.169073993726</v>
       </c>
       <c r="C131">
-        <v>85.478340410841994</v>
+        <v>85.478345340508</v>
       </c>
       <c r="D131">
         <v>39.629339806128002</v>
@@ -4165,10 +4200,10 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>104.386482718612</v>
+        <v>104.002852058344</v>
       </c>
       <c r="C132">
-        <v>137.37999587513499</v>
+        <v>137.38000674546001</v>
       </c>
       <c r="D132">
         <v>39.121394785678</v>
@@ -4188,10 +4223,10 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>100.52815941656399</v>
+        <v>101.476606563064</v>
       </c>
       <c r="C133">
-        <v>127.609806049675</v>
+        <v>127.609821299416</v>
       </c>
       <c r="D133">
         <v>41.139502632716002</v>
@@ -4211,10 +4246,10 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>97.968567953071997</v>
+        <v>97.289231745025006</v>
       </c>
       <c r="C134">
-        <v>103.623898473981</v>
+        <v>103.62391619786401</v>
       </c>
       <c r="D134">
         <v>41.613375849309001</v>
@@ -4234,10 +4269,10 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>94.670999344462004</v>
+        <v>95.017747894517001</v>
       </c>
       <c r="C135">
-        <v>89.865704234090003</v>
+        <v>89.865723093903</v>
       </c>
       <c r="D135">
         <v>39.688212720411997</v>
@@ -4257,10 +4292,10 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>97.060777144580996</v>
+        <v>99.702802305703997</v>
       </c>
       <c r="C136">
-        <v>77.177509715653002</v>
+        <v>77.177527786748996</v>
       </c>
       <c r="D136">
         <v>39.933931587186002</v>
@@ -4280,10 +4315,10 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>99.916209823583998</v>
+        <v>97.606130237176004</v>
       </c>
       <c r="C137">
-        <v>95.372646449532994</v>
+        <v>95.372666418801998</v>
       </c>
       <c r="D137">
         <v>39.836111711187002</v>
@@ -4303,10 +4338,10 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>102.27527581507699</v>
+        <v>101.673982978363</v>
       </c>
       <c r="C138">
-        <v>109.079702073908</v>
+        <v>109.079722402889</v>
       </c>
       <c r="D138">
         <v>39.447116122771</v>
@@ -4326,10 +4361,10 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>99.517532260704002</v>
+        <v>100.566779655267</v>
       </c>
       <c r="C139">
-        <v>115.603611700139</v>
+        <v>115.60362886024301</v>
       </c>
       <c r="D139">
         <v>38.770561839289002</v>
@@ -4349,10 +4384,10 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>100.80981716622701</v>
+        <v>100.126196242956</v>
       </c>
       <c r="C140">
-        <v>102.615221306192</v>
+        <v>102.61523117263999</v>
       </c>
       <c r="D140">
         <v>40.656212356296002</v>
@@ -4372,10 +4407,10 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>100.27356941726001</v>
+        <v>100.135575737198</v>
       </c>
       <c r="C141">
-        <v>76.768355388643997</v>
+        <v>76.768356647306007</v>
       </c>
       <c r="D141">
         <v>40.530821931584001</v>
@@ -4395,10 +4430,10 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>96.806754108682</v>
+        <v>97.496401946256</v>
       </c>
       <c r="C142">
-        <v>69.064043077456006</v>
+        <v>69.064036151043993</v>
       </c>
       <c r="D142">
         <v>39.182486798399999</v>
@@ -4418,10 +4453,10 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>103.66720470715499</v>
+        <v>102.947695570145</v>
       </c>
       <c r="C143">
-        <v>94.558260884301006</v>
+        <v>94.558241582823996</v>
       </c>
       <c r="D143">
         <v>38.077522808406997</v>
@@ -4441,10 +4476,10 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>104.231683573406</v>
+        <v>104.218098587828</v>
       </c>
       <c r="C144">
-        <v>130.89211001952</v>
+        <v>130.89207115093501</v>
       </c>
       <c r="D144">
         <v>36.946459914668999</v>
@@ -4464,10 +4499,10 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>102.80160868579</v>
+        <v>103.172546180369</v>
       </c>
       <c r="C145">
-        <v>135.37893667658301</v>
+        <v>135.378878534802</v>
       </c>
       <c r="D145">
         <v>37.370687475109001</v>
@@ -4487,10 +4522,10 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>98.755172441612999</v>
+        <v>98.174668188983006</v>
       </c>
       <c r="C146">
-        <v>102.100251925891</v>
+        <v>102.10018657834399</v>
       </c>
       <c r="D146">
         <v>35.55082196899</v>
@@ -4510,10 +4545,10 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>96.956575842098005</v>
+        <v>97.312120740338997</v>
       </c>
       <c r="C147">
-        <v>98.981318098086007</v>
+        <v>98.981243609074994</v>
       </c>
       <c r="D147">
         <v>35.734569280526998</v>
@@ -4533,10 +4568,10 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>101.49487593774001</v>
+        <v>101.580961131249</v>
       </c>
       <c r="C148">
-        <v>82.553097278851993</v>
+        <v>82.553025981134994</v>
       </c>
       <c r="D148">
         <v>37.135146875798</v>
@@ -4556,10 +4591,10 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>100.31858787547</v>
+        <v>100.603370613598</v>
       </c>
       <c r="C149">
-        <v>96.351293239441006</v>
+        <v>96.351218747450005</v>
       </c>
       <c r="D149">
         <v>37.610133678604001</v>
@@ -4579,10 +4614,10 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>104.860862416487</v>
+        <v>104.716243566412</v>
       </c>
       <c r="C150">
-        <v>115.43802925089901</v>
+        <v>115.437951328442</v>
       </c>
       <c r="D150">
         <v>37.751338610127</v>
@@ -4602,10 +4637,10 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>102.894057632979</v>
+        <v>103.626749944303</v>
       </c>
       <c r="C151">
-        <v>116.10812574433</v>
+        <v>116.10806277554001</v>
       </c>
       <c r="D151">
         <v>37.904949226010999</v>
@@ -4625,10 +4660,10 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>104.13870862961799</v>
+        <v>103.416420548288</v>
       </c>
       <c r="C152">
-        <v>108.455895620482</v>
+        <v>108.455859187542</v>
       </c>
       <c r="D152">
         <v>37.551813280327003</v>
@@ -4648,10 +4683,10 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>101.736246871856</v>
+        <v>102.558714816169</v>
       </c>
       <c r="C153">
-        <v>81.765730339488002</v>
+        <v>81.765726425276</v>
       </c>
       <c r="D153">
         <v>37.450159922914999</v>
@@ -4671,10 +4706,10 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>100.01547725900301</v>
+        <v>99.558014967035007</v>
       </c>
       <c r="C154">
-        <v>72.019539321015003</v>
+        <v>72.019566309835994</v>
       </c>
       <c r="D154">
         <v>38.219888179972003</v>
@@ -4694,10 +4729,10 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>106.81104294406499</v>
+        <v>106.18332726376801</v>
       </c>
       <c r="C155">
-        <v>91.826016867052999</v>
+        <v>91.826088529977994</v>
       </c>
       <c r="D155">
         <v>37.693542023310002</v>
@@ -4717,10 +4752,10 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>106.47979001271401</v>
+        <v>107.602149336731</v>
       </c>
       <c r="C156">
-        <v>132.91589692653699</v>
+        <v>132.916042483095</v>
       </c>
       <c r="D156">
         <v>38.475968975641003</v>
@@ -4740,10 +4775,10 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>106.881267446669</v>
+        <v>106.157009293122</v>
       </c>
       <c r="C157">
-        <v>141.53158316357801</v>
+        <v>141.53180581993701</v>
       </c>
       <c r="D157">
         <v>38.691437136761003</v>
@@ -4763,10 +4798,10 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>102.319668879237</v>
+        <v>102.178751315696</v>
       </c>
       <c r="C158">
-        <v>116.143210097379</v>
+        <v>116.143471847657</v>
       </c>
       <c r="D158">
         <v>38.062504132065001</v>
@@ -4786,10 +4821,10 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>99.870438572693004</v>
+        <v>100.23679373803201</v>
       </c>
       <c r="C159">
-        <v>99.037461159255997</v>
+        <v>99.037735545638</v>
       </c>
       <c r="D159">
         <v>37.491142610506998</v>
@@ -4809,10 +4844,10 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>104.965992829134</v>
+        <v>104.447971213663</v>
       </c>
       <c r="C160">
-        <v>81.092290509418007</v>
+        <v>81.092551670307003</v>
       </c>
       <c r="D160">
         <v>38.505218872516998</v>
@@ -4832,10 +4867,10 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>103.687798665187</v>
+        <v>104.21615886976799</v>
       </c>
       <c r="C161">
-        <v>100.70627314949699</v>
+        <v>100.706551555613</v>
       </c>
       <c r="D161">
         <v>37.842864420837998</v>
@@ -4855,10 +4890,10 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>106.197837796293</v>
+        <v>107.056797948096</v>
       </c>
       <c r="C162">
-        <v>120.789974429675</v>
+        <v>120.79026283249399</v>
       </c>
       <c r="D162">
         <v>38.031691558285999</v>
@@ -4878,10 +4913,10 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>107.31698491214</v>
+        <v>106.82558282892001</v>
       </c>
       <c r="C163">
-        <v>111.91510595860299</v>
+        <v>111.915323484925</v>
       </c>
       <c r="D163">
         <v>39.111922237709003</v>
@@ -4901,10 +4936,10 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>107.460020503442</v>
+        <v>106.82851342806001</v>
       </c>
       <c r="C164">
-        <v>101.483838794156</v>
+        <v>101.48396340548901</v>
       </c>
       <c r="D164">
         <v>38.131884189947002</v>
@@ -4924,10 +4959,10 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>105.482679476041</v>
+        <v>106.478363143519</v>
       </c>
       <c r="C165">
-        <v>83.810344337386994</v>
+        <v>83.810355704751998</v>
       </c>
       <c r="D165">
         <v>37.383557196311997</v>
@@ -4947,10 +4982,10 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>105.02290876505801</v>
+        <v>104.42453100708001</v>
       </c>
       <c r="C166">
-        <v>74.914731223922004</v>
+        <v>74.914626701071995</v>
       </c>
       <c r="D166">
         <v>37.449011862978999</v>
@@ -4970,10 +5005,10 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>109.294723611276</v>
+        <v>109.14312398649101</v>
       </c>
       <c r="C167">
-        <v>92.750221833230995</v>
+        <v>92.749954249446006</v>
       </c>
       <c r="D167">
         <v>37.813079113192003</v>
@@ -4993,10 +5028,10 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>109.09933555367201</v>
+        <v>109.875938268252</v>
       </c>
       <c r="C168">
-        <v>129.15272313138101</v>
+        <v>129.15220203185899</v>
       </c>
       <c r="D168">
         <v>38.182935259201997</v>
@@ -5016,10 +5051,10 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>109.26325790380599</v>
+        <v>108.503874071645</v>
       </c>
       <c r="C169">
-        <v>145.45297689555301</v>
+        <v>145.452152490206</v>
       </c>
       <c r="D169">
         <v>38.368540211141998</v>
@@ -5039,10 +5074,10 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>104.41914063819701</v>
+        <v>105.26341159854501</v>
       </c>
       <c r="C170">
-        <v>118.043673540276</v>
+        <v>118.042702381911</v>
       </c>
       <c r="D170">
         <v>38.181521075725001</v>
@@ -5062,10 +5097,10 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>104.580392781068</v>
+        <v>103.326405820186</v>
       </c>
       <c r="C171">
-        <v>102.409165509461</v>
+        <v>102.408138784188</v>
       </c>
       <c r="D171">
         <v>36.732083562291997</v>
@@ -5085,10 +5120,10 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>105.908786289689</v>
+        <v>107.169093570356</v>
       </c>
       <c r="C172">
-        <v>79.80027501523</v>
+        <v>79.799313829762994</v>
       </c>
       <c r="D172">
         <v>36.814432418720997</v>
@@ -5108,10 +5143,10 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>107.292951617322</v>
+        <v>105.279720521095</v>
       </c>
       <c r="C173">
-        <v>101.389471384141</v>
+        <v>101.38842682452599</v>
       </c>
       <c r="D173">
         <v>36.713858243741001</v>
@@ -5131,10 +5166,10 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>109.06275058857101</v>
+        <v>109.454106524943</v>
       </c>
       <c r="C174">
-        <v>113.62850727270801</v>
+        <v>113.627484828272</v>
       </c>
       <c r="D174">
         <v>37.484803883049999</v>
@@ -5154,10 +5189,10 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>109.961895192453</v>
+        <v>109.580687723567</v>
       </c>
       <c r="C175">
-        <v>127.31038039329999</v>
+        <v>127.309489890828</v>
       </c>
       <c r="D175">
         <v>38.349095003102001</v>
@@ -5177,10 +5212,10 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>107.525150718063</v>
+        <v>108.39352099447299</v>
       </c>
       <c r="C176">
-        <v>104.70234782295501</v>
+        <v>104.701850653519</v>
       </c>
       <c r="D176">
         <v>36.506041112359</v>
@@ -5200,10 +5235,10 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>108.948571843824</v>
+        <v>108.208995419875</v>
       </c>
       <c r="C177">
-        <v>89.827667041173996</v>
+        <v>89.827596837713998</v>
       </c>
       <c r="D177">
         <v>35.655436898837998</v>
@@ -5223,10 +5258,10 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>106.060690278262</v>
+        <v>105.671703984826</v>
       </c>
       <c r="C178">
-        <v>77.026648933022997</v>
+        <v>77.027023386638007</v>
       </c>
       <c r="D178">
         <v>34.754994253749999</v>
@@ -5246,10 +5281,10 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>110.564099696875</v>
+        <v>111.608318126743</v>
       </c>
       <c r="C179">
-        <v>95.245444162774007</v>
+        <v>95.246431648536003</v>
       </c>
       <c r="D179">
         <v>35.031896434495003</v>
@@ -5269,10 +5304,10 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>114.145027962008</v>
+        <v>113.496538290329</v>
       </c>
       <c r="C180">
-        <v>140.73190421027101</v>
+        <v>140.73391600266899</v>
       </c>
       <c r="D180">
         <v>34.875177957368003</v>
@@ -5292,10 +5327,10 @@
         <v>184</v>
       </c>
       <c r="B181">
-        <v>112.508744926152</v>
+        <v>112.35768028521299</v>
       </c>
       <c r="C181">
-        <v>151.70789964909699</v>
+        <v>151.71100986584699</v>
       </c>
       <c r="D181">
         <v>35.478418724981999</v>
@@ -5315,10 +5350,10 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>108.41882508777699</v>
+        <v>108.81179966753299</v>
       </c>
       <c r="C182">
-        <v>132.160014790947</v>
+        <v>132.16379165436101</v>
       </c>
       <c r="D182">
         <v>28.667872479598</v>
@@ -5338,10 +5373,10 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>105.282245585586</v>
+        <v>105.671627053924</v>
       </c>
       <c r="C183">
-        <v>98.437916357611002</v>
+        <v>98.441678154154005</v>
       </c>
       <c r="D183">
         <v>31.515609602348999</v>
@@ -5361,10 +5396,10 @@
         <v>187</v>
       </c>
       <c r="B184">
-        <v>111.90313270386</v>
+        <v>110.30374541881299</v>
       </c>
       <c r="C184">
-        <v>84.350575324139001</v>
+        <v>84.354224996542001</v>
       </c>
       <c r="D184">
         <v>33.795125366694997</v>
@@ -5384,10 +5419,10 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>106.200352635166</v>
+        <v>108.247348979191</v>
       </c>
       <c r="C185">
-        <v>103.93983214019499</v>
+        <v>103.94373935169899</v>
       </c>
       <c r="D185">
         <v>34.934500730947001</v>
@@ -5407,10 +5442,10 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>112.30198515689899</v>
+        <v>111.54620422233801</v>
       </c>
       <c r="C186">
-        <v>114.66722542106299</v>
+        <v>114.67097189073</v>
       </c>
       <c r="D186">
         <v>35.873278680958002</v>
@@ -5430,10 +5465,10 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>112.796103785716</v>
+        <v>112.386964871087</v>
       </c>
       <c r="C187">
-        <v>132.45799050566899</v>
+        <v>132.46125412572999</v>
       </c>
       <c r="D187">
         <v>36.010357040914002</v>
@@ -5453,10 +5488,10 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>108.954287188637</v>
+        <v>109.98514464917</v>
       </c>
       <c r="C188">
-        <v>107.927376227571</v>
+        <v>107.92918206620401</v>
       </c>
       <c r="D188">
         <v>36.488627292064997</v>
@@ -5476,10 +5511,10 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>111.77004462091099</v>
+        <v>110.995465110119</v>
       </c>
       <c r="C189">
-        <v>87.538574457693002</v>
+        <v>87.538778619431994</v>
       </c>
       <c r="D189">
         <v>36.505500828123999</v>
@@ -5499,10 +5534,10 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>106.322507191299</v>
+        <v>106.30681997809199</v>
       </c>
       <c r="C190">
-        <v>78.899739798778</v>
+        <v>78.898271966147007</v>
       </c>
       <c r="D190">
         <v>36.787947686430002</v>
@@ -5522,10 +5557,10 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>112.849645548186</v>
+        <v>113.251745819378</v>
       </c>
       <c r="C191">
-        <v>98.340177797020999</v>
+        <v>98.336470755448005</v>
       </c>
       <c r="D191">
         <v>36.436983240153999</v>
@@ -5545,10 +5580,10 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>116.181360177413</v>
+        <v>115.77020629334299</v>
       </c>
       <c r="C192">
-        <v>152.67525495589101</v>
+        <v>152.66764294290201</v>
       </c>
       <c r="D192">
         <v>36.716793474580001</v>
@@ -5568,10 +5603,10 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>114.002136771016</v>
+        <v>114.90979382387199</v>
       </c>
       <c r="C193">
-        <v>155.022612510328</v>
+        <v>155.011283763557</v>
       </c>
       <c r="D193">
         <v>36.315462765375997</v>
@@ -5591,10 +5626,10 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>111.018633683876</v>
+        <v>110.253035811384</v>
       </c>
       <c r="C194">
-        <v>134.31430265671301</v>
+        <v>134.30044008868299</v>
       </c>
       <c r="D194">
         <v>34.801847205944</v>
@@ -5614,10 +5649,10 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>107.815445563914</v>
+        <v>108.19583864939401</v>
       </c>
       <c r="C195">
-        <v>107.97211773455</v>
+        <v>107.957602348647</v>
       </c>
       <c r="D195">
         <v>34.189339177953002</v>
@@ -5637,10 +5672,10 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>111.20270429071201</v>
+        <v>113.135586744271</v>
       </c>
       <c r="C196">
-        <v>90.209736885254003</v>
+        <v>90.195740190785003</v>
       </c>
       <c r="D196">
         <v>34.336726438239999</v>
@@ -5660,10 +5695,10 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>111.605938535021</v>
+        <v>110.28467521439801</v>
       </c>
       <c r="C197">
-        <v>108.23289833459199</v>
+        <v>108.218256180079</v>
       </c>
       <c r="D197">
         <v>35.611584664380999</v>
@@ -5683,10 +5718,10 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>115.830989025476</v>
+        <v>115.005447020584</v>
       </c>
       <c r="C198">
-        <v>124.82463019701601</v>
+        <v>124.810391774338</v>
       </c>
       <c r="D198">
         <v>36.647874828558997</v>
@@ -5706,10 +5741,10 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>114.44768603638801</v>
+        <v>114.413738614884</v>
       </c>
       <c r="C199">
-        <v>126.72993745948</v>
+        <v>126.71859056525599</v>
       </c>
       <c r="D199">
         <v>37.148299568801001</v>
@@ -5729,10 +5764,10 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>112.80451993210001</v>
+        <v>113.200561991678</v>
       </c>
       <c r="C200">
-        <v>109.309555425358</v>
+        <v>109.30313336209601</v>
       </c>
       <c r="D200">
         <v>43.341085684473001</v>
@@ -5752,10 +5787,10 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>114.326571312008</v>
+        <v>113.65217726735101</v>
       </c>
       <c r="C201">
-        <v>89.098196771342003</v>
+        <v>89.097616717167995</v>
       </c>
       <c r="D201">
         <v>43.005686306386998</v>
@@ -5775,10 +5810,10 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>108.76697179640099</v>
+        <v>109.92133540667599</v>
       </c>
       <c r="C202">
-        <v>78.870653033170996</v>
+        <v>78.876368382416999</v>
       </c>
       <c r="D202">
         <v>42.132704095465002</v>
@@ -5798,10 +5833,10 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>115.95791152245801</v>
+        <v>115.19329669931599</v>
       </c>
       <c r="C203">
-        <v>93.065391246942994</v>
+        <v>93.079163101860004</v>
       </c>
       <c r="D203">
         <v>42.533012467452998</v>
@@ -5821,10 +5856,10 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>117.717056051592</v>
+        <v>117.32676657347299</v>
       </c>
       <c r="C204">
-        <v>157.72708784378099</v>
+        <v>157.75552590982599</v>
       </c>
       <c r="D204">
         <v>41.675040786563997</v>
@@ -5844,10 +5879,10 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>113.09200026891</v>
+        <v>114.213673068045</v>
       </c>
       <c r="C205">
-        <v>159.720401908849</v>
+        <v>159.76208087589501</v>
       </c>
       <c r="D205">
         <v>44.865438497928999</v>
@@ -5867,10 +5902,10 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>112.50953479580799</v>
+        <v>111.775018304699</v>
       </c>
       <c r="C206">
-        <v>133.62553880643699</v>
+        <v>133.67612148199601</v>
       </c>
       <c r="D206">
         <v>45.929883044867999</v>
@@ -5890,10 +5925,10 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>108.826367661125</v>
+        <v>109.288827288546</v>
       </c>
       <c r="C207">
-        <v>114.326848465105</v>
+        <v>114.381968679547</v>
       </c>
       <c r="D207">
         <v>47.826149713221</v>
@@ -5913,10 +5948,10 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>112.273119074931</v>
+        <v>112.302826811819</v>
       </c>
       <c r="C208">
-        <v>91.853333082825003</v>
+        <v>91.905273550125997</v>
       </c>
       <c r="D208">
         <v>46.341067759577001</v>
@@ -5936,10 +5971,10 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>109.803376867968</v>
+        <v>110.32756886992701</v>
       </c>
       <c r="C209">
-        <v>106.51363779402099</v>
+        <v>106.56701325557199</v>
       </c>
       <c r="D209">
         <v>45.484973893286003</v>
@@ -5959,10 +5994,10 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>115.22991350287199</v>
+        <v>114.65027728114001</v>
       </c>
       <c r="C210">
-        <v>122.855899492576</v>
+        <v>122.907648525017</v>
       </c>
       <c r="D210">
         <v>44.323546935750997</v>
@@ -5982,10 +6017,10 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>112.820787545263</v>
+        <v>114.093849255393</v>
       </c>
       <c r="C211">
-        <v>127.91296925074801</v>
+        <v>127.954638563629</v>
       </c>
       <c r="D211">
         <v>43.665842320727997</v>
@@ -6005,10 +6040,10 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>113.370143865513</v>
+        <v>112.667546108642</v>
       </c>
       <c r="C212">
-        <v>111.93436763088</v>
+        <v>111.957956223888</v>
       </c>
       <c r="D212">
         <v>43.317695798679999</v>
@@ -6028,10 +6063,10 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>113.23208399025999</v>
+        <v>113.126617330884</v>
       </c>
       <c r="C213">
-        <v>87.690700523550007</v>
+        <v>87.692413649431998</v>
       </c>
       <c r="D213">
         <v>43.819211712737001</v>
@@ -6051,10 +6086,10 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>108.85989920570699</v>
+        <v>109.650343073318</v>
       </c>
       <c r="C214">
-        <v>83.421612149840001</v>
+        <v>83.399489770697997</v>
       </c>
       <c r="D214">
         <v>45.299473488517002</v>
@@ -6074,10 +6109,10 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>115.375764011608</v>
+        <v>114.58637511216</v>
       </c>
       <c r="C215">
-        <v>100.041118141338</v>
+        <v>99.987688107319002</v>
       </c>
       <c r="D215">
         <v>44.059735903125997</v>
@@ -6097,10 +6132,10 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>116.294154974853</v>
+        <v>116.230496281762</v>
       </c>
       <c r="C216">
-        <v>150.10907948735101</v>
+        <v>150.005984020775</v>
       </c>
       <c r="D216">
         <v>43.840726940102002</v>
@@ -6120,10 +6155,10 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>113.403113411775</v>
+        <v>113.739497589224</v>
       </c>
       <c r="C217">
-        <v>154.38305446044799</v>
+        <v>154.23212109284501</v>
       </c>
       <c r="D217">
         <v>43.757350301180999</v>
@@ -6143,10 +6178,10 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>112.365436313616</v>
+        <v>111.24242185557399</v>
       </c>
       <c r="C218">
-        <v>133.198511846732</v>
+        <v>132.065121113354</v>
       </c>
       <c r="D218">
         <v>44.120454102384997</v>
@@ -6166,10 +6201,10 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>108.865395160951</v>
+        <v>107.381727288131</v>
       </c>
       <c r="C219">
-        <v>103.10642936909299</v>
+        <v>102.374457021428</v>
       </c>
       <c r="D219">
         <v>43.329942793901999</v>
@@ -6189,10 +6224,10 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>110.039052807169</v>
+        <v>109.29194663301899</v>
       </c>
       <c r="C220">
-        <v>98.058008950168002</v>
+        <v>96.961220299358999</v>
       </c>
       <c r="D220">
         <v>42.059280695535001</v>
@@ -6212,10 +6247,10 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>88.245394207090001</v>
+        <v>88.336683000009998</v>
       </c>
       <c r="C221">
-        <v>104.873550155007</v>
+        <v>105.036685806489</v>
       </c>
       <c r="D221">
         <v>32.223545786244998</v>
@@ -6235,10 +6270,10 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>88.994072802052003</v>
+        <v>90.032228711881999</v>
       </c>
       <c r="C222">
-        <v>122.257671266746</v>
+        <v>121.717751573896</v>
       </c>
       <c r="D222">
         <v>31.068243908700001</v>
@@ -6258,10 +6293,10 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>97.930322596750997</v>
+        <v>97.369084446792996</v>
       </c>
       <c r="C223">
-        <v>122.60146853283899</v>
+        <v>121.47102466899101</v>
       </c>
       <c r="D223">
         <v>31.957181906052998</v>
@@ -6281,10 +6316,10 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>102.37454301443</v>
+        <v>101.360834069654</v>
       </c>
       <c r="C224">
-        <v>120.601158087543</v>
+        <v>120.202921295371</v>
       </c>
       <c r="D224">
         <v>34.417344488575999</v>
@@ -6304,10 +6339,10 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>102.741091248242</v>
+        <v>103.619639705407</v>
       </c>
       <c r="C225">
-        <v>90.738539989531006</v>
+        <v>89.853782412250993</v>
       </c>
       <c r="D225">
         <v>35.064783138979998</v>
@@ -6327,10 +6362,10 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>103.36978477018199</v>
+        <v>102.329537654844</v>
       </c>
       <c r="C226">
-        <v>87.548377969979995</v>
+        <v>86.796968319141001</v>
       </c>
       <c r="D226">
         <v>36.282043642848002</v>
@@ -6350,10 +6385,10 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>109.260911929065</v>
+        <v>109.022291022171</v>
       </c>
       <c r="C227">
-        <v>105.574797586629</v>
+        <v>105.87272389731601</v>
       </c>
       <c r="D227">
         <v>37.891239623548003</v>
@@ -6373,10 +6408,10 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>111.079437918614</v>
+        <v>111.9475870003</v>
       </c>
       <c r="C228">
-        <v>155.490137536378</v>
+        <v>157.19648596652399</v>
       </c>
       <c r="D228">
         <v>37.076740993336998</v>
@@ -6396,10 +6431,10 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>110.866074675047</v>
+        <v>109.30030930992901</v>
       </c>
       <c r="C229">
-        <v>149.879628458197</v>
+        <v>150.17789805028801</v>
       </c>
       <c r="D229">
         <v>38.748705307191997</v>
@@ -6419,10 +6454,10 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>105.36942350645199</v>
+        <v>105.545705239936</v>
       </c>
       <c r="C230">
-        <v>132.23192160412</v>
+        <v>133.09349328716101</v>
       </c>
       <c r="D230">
         <v>39.211395346757001</v>
@@ -6431,7 +6466,7 @@
         <v>42.868581418947002</v>
       </c>
       <c r="F230">
-        <v>42985.73</v>
+        <v>45322.405500000008</v>
       </c>
       <c r="G230">
         <v>19.921500000000002</v>
@@ -6442,10 +6477,10 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>102.67214605514</v>
+        <v>102.802938120487</v>
       </c>
       <c r="C231">
-        <v>104.88551025251</v>
+        <v>105.614142719844</v>
       </c>
       <c r="D231">
         <v>38.640136961084998</v>
@@ -6454,7 +6489,7 @@
         <v>41.195869587567003</v>
       </c>
       <c r="F231">
-        <v>44592.91</v>
+        <v>44521.79631578947</v>
       </c>
       <c r="G231">
         <v>20.309699999999999</v>
@@ -6465,10 +6500,10 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>111.51814166803899</v>
+        <v>111.518641110861</v>
       </c>
       <c r="C232">
-        <v>94.025376570720994</v>
+        <v>94.775579264106995</v>
       </c>
       <c r="D232">
         <v>40.581572053441</v>
@@ -6477,7 +6512,7 @@
         <v>42.862133503384001</v>
       </c>
       <c r="F232">
-        <v>47246.26</v>
+        <v>47032.961363636357</v>
       </c>
       <c r="G232">
         <v>20.755500000000001</v>
@@ -6488,10 +6523,10 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>108.08016779191</v>
+        <v>107.83486885096301</v>
       </c>
       <c r="C233">
-        <v>103.246533246371</v>
+        <v>104.110501230672</v>
       </c>
       <c r="D233">
         <v>42.509073150798997</v>
@@ -6500,7 +6535,7 @@
         <v>45.191910905470998</v>
       </c>
       <c r="F233">
-        <v>48009.72</v>
+        <v>48357.7955</v>
       </c>
       <c r="G233">
         <v>20.0153</v>
@@ -6511,10 +6546,10 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>112.06310289755901</v>
+        <v>111.176810448347</v>
       </c>
       <c r="C234">
-        <v>131.512914321784</v>
+        <v>132.97779757358001</v>
       </c>
       <c r="D234">
         <v>42.422701068797998</v>
@@ -6523,7 +6558,7 @@
         <v>44.859401747934001</v>
       </c>
       <c r="F234">
-        <v>50885.95</v>
+        <v>49328.700952380961</v>
       </c>
       <c r="G234">
         <v>19.963100000000001</v>
@@ -6534,10 +6569,10 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>111.190938228609</v>
+        <v>110.803499084891</v>
       </c>
       <c r="C235">
-        <v>131.52352891863401</v>
+        <v>132.93166709583099</v>
       </c>
       <c r="D235">
         <v>44.347676509277001</v>
@@ -6546,7 +6581,7 @@
         <v>46.584308581858998</v>
       </c>
       <c r="F235">
-        <v>50289.75</v>
+        <v>50618.913181818185</v>
       </c>
       <c r="G235">
         <v>20.030100000000001</v>
@@ -6554,13 +6589,13 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B236">
-        <v>109.89353229418801</v>
+        <v>109.21461340579501</v>
       </c>
       <c r="C236">
-        <v>117.923599235975</v>
+        <v>119.999505126287</v>
       </c>
       <c r="D236">
         <v>44.293387523756998</v>
@@ -6569,7 +6604,7 @@
         <v>47.760393759563001</v>
       </c>
       <c r="F236">
-        <v>50868.32</v>
+        <v>50184.981363636354</v>
       </c>
       <c r="G236">
         <v>19.970099999999999</v>
@@ -6577,13 +6612,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B237">
-        <v>107.25443250885</v>
+        <v>106.90935410265</v>
       </c>
       <c r="C237">
-        <v>90.097985911226004</v>
+        <v>91.162882512973994</v>
       </c>
       <c r="D237">
         <v>42.474646633177002</v>
@@ -6592,7 +6627,7 @@
         <v>46.161111996122003</v>
       </c>
       <c r="F237">
-        <v>53304.74</v>
+        <v>51649.266818181823</v>
       </c>
       <c r="G237">
         <v>20.0761</v>
@@ -6603,10 +6638,10 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>104.266588809605</v>
+        <v>104.205534403445</v>
       </c>
       <c r="C238">
-        <v>85.333190572000007</v>
+        <v>86.213162301219</v>
       </c>
       <c r="D238">
         <v>43.342082825585997</v>
@@ -6615,7 +6650,7 @@
         <v>46.554106339950998</v>
       </c>
       <c r="F238">
-        <v>51385.55</v>
+        <v>51517.07</v>
       </c>
       <c r="G238">
         <v>20.0487</v>
@@ -6626,10 +6661,10 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>108.486779838384</v>
+        <v>108.249110898899</v>
       </c>
       <c r="C239">
-        <v>102.05081643754001</v>
+        <v>100.866217488478</v>
       </c>
       <c r="D239">
         <v>43.843081349925001</v>
@@ -6638,7 +6673,7 @@
         <v>46.433398149683001</v>
       </c>
       <c r="F239">
-        <v>51309.84</v>
+        <v>51705.356190476188</v>
       </c>
       <c r="G239">
         <v>20.462599999999998</v>
@@ -6649,10 +6684,10 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>112.96735172607799</v>
+        <v>112.534490267401</v>
       </c>
       <c r="C240">
-        <v>166.735713969355</v>
+        <v>165.69725485464099</v>
       </c>
       <c r="D240">
         <v>45.935432245422</v>
@@ -6661,7 +6696,7 @@
         <v>49.705606261631999</v>
       </c>
       <c r="F240">
-        <v>49698.720000000001</v>
+        <v>51125.743500000004</v>
       </c>
       <c r="G240">
         <v>20.900400000000001</v>
@@ -6672,10 +6707,10 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>112.333931039671</v>
+        <v>112.653666724978</v>
       </c>
       <c r="C241">
-        <v>162.19288370678299</v>
+        <v>162.874786973932</v>
       </c>
       <c r="D241">
         <v>44.896417492952999</v>
@@ -6684,7 +6719,7 @@
         <v>49.117447024154004</v>
       </c>
       <c r="F241">
-        <v>53272.44</v>
+        <v>51759.230869565217</v>
       </c>
       <c r="G241">
         <v>20.8918</v>
@@ -6692,13 +6727,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B242">
-        <v>107.318082356419</v>
+        <v>107.229035040764</v>
       </c>
       <c r="C242">
-        <v>133.483101459106</v>
+        <v>132.28306215549799</v>
       </c>
       <c r="D242">
         <v>43.590903532298</v>
@@ -6707,7 +6742,7 @@
         <v>48.820961800531002</v>
       </c>
       <c r="F242">
-        <v>51330.85</v>
+        <v>52494.79714285714</v>
       </c>
       <c r="G242">
         <v>20.497800000000002</v>
@@ -6715,13 +6750,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B243">
-        <v>105.276703813745</v>
+        <v>105.540077061307</v>
       </c>
       <c r="C243">
-        <v>104.11859975777099</v>
+        <v>101.711782659996</v>
       </c>
       <c r="D243">
         <v>42.940053805837998</v>
@@ -6730,7 +6765,7 @@
         <v>47.618338338727</v>
       </c>
       <c r="F243">
-        <v>53400.61</v>
+        <v>52353.798947368421</v>
       </c>
       <c r="G243">
         <v>20.4495</v>
@@ -6738,13 +6773,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B244">
-        <v>111.98047077895799</v>
+        <v>112.259414672555</v>
       </c>
       <c r="C244">
-        <v>100.135944856793</v>
+        <v>98.315348498844997</v>
       </c>
       <c r="D244">
         <v>43.560277939671998</v>
@@ -6753,7 +6788,7 @@
         <v>48.565838502425002</v>
       </c>
       <c r="F244">
-        <v>56536.68</v>
+        <v>54312.392272727266</v>
       </c>
       <c r="G244">
         <v>20.5562</v>
@@ -6761,13 +6796,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B245">
-        <v>109.551183901644</v>
+        <v>109.61856941521</v>
       </c>
       <c r="C245">
-        <v>109.143398846948</v>
+        <v>107.89217870511</v>
       </c>
       <c r="D245">
         <v>44.301709560652</v>
@@ -6776,7 +6811,7 @@
         <v>48.656022717787998</v>
       </c>
       <c r="F245">
-        <v>51417.97</v>
+        <v>54057.038947368412</v>
       </c>
       <c r="G245">
         <v>20.108799999999999</v>
@@ -6784,13 +6819,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B246">
-        <v>114.403837432644</v>
+        <v>114.21407477879001</v>
       </c>
       <c r="C246">
-        <v>136.402293131036</v>
+        <v>136.18789483847999</v>
       </c>
       <c r="D246">
         <v>43.782312077302997</v>
@@ -6799,10 +6834,286 @@
         <v>48.498823005215002</v>
       </c>
       <c r="F246">
-        <v>51752.53</v>
+        <v>50861.209090909084</v>
       </c>
       <c r="G246">
         <v>20.0305</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247">
+        <v>112.790073371649</v>
+      </c>
+      <c r="C247">
+        <v>126.874198567599</v>
+      </c>
+      <c r="D247">
+        <v>43.208627089887997</v>
+      </c>
+      <c r="E247">
+        <v>48.193663327727002</v>
+      </c>
+      <c r="F247">
+        <v>48692.372272727269</v>
+      </c>
+      <c r="G247">
+        <v>20.023700000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>241</v>
+      </c>
+      <c r="B248">
+        <v>111.284214253336</v>
+      </c>
+      <c r="C248">
+        <v>116.255810710361</v>
+      </c>
+      <c r="D248">
+        <v>41.269872650913001</v>
+      </c>
+      <c r="E248">
+        <v>47.117538341913999</v>
+      </c>
+      <c r="F248">
+        <v>47392.099047619049</v>
+      </c>
+      <c r="G248">
+        <v>20.546700000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>242</v>
+      </c>
+      <c r="B249">
+        <v>112.917041167657</v>
+      </c>
+      <c r="C249">
+        <v>93.413122449645002</v>
+      </c>
+      <c r="D249">
+        <v>40.297933839210003</v>
+      </c>
+      <c r="E249">
+        <v>46.110803005036999</v>
+      </c>
+      <c r="F249">
+        <v>47547.934347826085</v>
+      </c>
+      <c r="G249">
+        <v>20.120899999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250">
+        <v>109.505769654082</v>
+      </c>
+      <c r="C250">
+        <v>91.087344538628997</v>
+      </c>
+      <c r="D250">
+        <v>40.822792165000003</v>
+      </c>
+      <c r="E250">
+        <v>46.146287762375003</v>
+      </c>
+      <c r="F250">
+        <v>46121.979523809525</v>
+      </c>
+      <c r="G250">
+        <v>20.074999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251">
+        <v>113.101302204276</v>
+      </c>
+      <c r="C251">
+        <v>105.100205601818</v>
+      </c>
+      <c r="D251">
+        <v>41.283880015538998</v>
+      </c>
+      <c r="E251">
+        <v>46.546572248768001</v>
+      </c>
+      <c r="F251">
+        <v>46825.505238095233</v>
+      </c>
+      <c r="G251">
+        <v>19.984500000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252">
+        <v>116.235465411032</v>
+      </c>
+      <c r="C252">
+        <v>174.80824153539399</v>
+      </c>
+      <c r="D252">
+        <v>41.755955250832002</v>
+      </c>
+      <c r="E252">
+        <v>47.194352112982997</v>
+      </c>
+      <c r="F252">
+        <v>51284.925499999998</v>
+      </c>
+      <c r="G252">
+        <v>19.444900000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253">
+        <v>115.65744692961501</v>
+      </c>
+      <c r="C253">
+        <v>174.15090605306801</v>
+      </c>
+      <c r="D253">
+        <v>43.287305150133001</v>
+      </c>
+      <c r="E253">
+        <v>48.340994727808003</v>
+      </c>
+      <c r="F253">
+        <v>50269.864761904748</v>
+      </c>
+      <c r="G253">
+        <v>19.593</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254">
+        <v>112.099534402271</v>
+      </c>
+      <c r="C254">
+        <v>131.63322847320501</v>
+      </c>
+      <c r="D254">
+        <v>44.774005908794003</v>
+      </c>
+      <c r="E254">
+        <v>49.505313506842</v>
+      </c>
+      <c r="F254">
+        <v>53007.338181818181</v>
+      </c>
+      <c r="G254">
+        <v>18.9863</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255">
+        <v>109.550381639275</v>
+      </c>
+      <c r="C255">
+        <v>110.300233693525</v>
+      </c>
+      <c r="D255">
+        <v>44.648579360698001</v>
+      </c>
+      <c r="E255">
+        <v>48.915633636327001</v>
+      </c>
+      <c r="F255">
+        <v>53342.19000000001</v>
+      </c>
+      <c r="G255">
+        <v>18.598600000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256">
+        <v>115.25168580496199</v>
+      </c>
+      <c r="C256">
+        <v>99.198459687297998</v>
+      </c>
+      <c r="D256">
+        <v>44.497504601820999</v>
+      </c>
+      <c r="E256">
+        <v>48.885747890302</v>
+      </c>
+      <c r="F256">
+        <v>53120.794090909098</v>
+      </c>
+      <c r="G256">
+        <v>18.3749</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257">
+        <v>112.52454605654199</v>
+      </c>
+      <c r="C257">
+        <v>110.169383055815</v>
+      </c>
+      <c r="D257">
+        <v>44.604057252018997</v>
+      </c>
+      <c r="E257">
+        <v>48.967654366685998</v>
+      </c>
+      <c r="F257">
+        <v>54352.19000000001</v>
+      </c>
+      <c r="G257">
+        <v>18.0855</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258">
+        <v>119.135537781992</v>
+      </c>
+      <c r="C258">
+        <v>137.945520319699</v>
+      </c>
+      <c r="D258">
+        <v>44.672420334263002</v>
+      </c>
+      <c r="E258">
+        <v>49.051707577393003</v>
+      </c>
+      <c r="F258">
+        <v>54492.129090909097</v>
+      </c>
+      <c r="G258">
+        <v>17.737300000000001</v>
       </c>
     </row>
   </sheetData>
